--- a/Finflux Automation Excels/Client/4933-EI-DB-SAR-PartialPeriod-RECAL-COMP-MultiTranche-MakeRepayment1.xlsx
+++ b/Finflux Automation Excels/Client/4933-EI-DB-SAR-PartialPeriod-RECAL-COMP-MultiTranche-MakeRepayment1.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Modify Transaction" sheetId="1" r:id="rId1"/>
     <sheet name="Modify Transaction1" sheetId="2" r:id="rId2"/>
     <sheet name="Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="Repayment schedule" sheetId="4" r:id="rId4"/>
-    <sheet name="Transactions" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Repayment schedule" sheetId="4" r:id="rId5"/>
+    <sheet name="Transactions" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -589,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,8 +657,8 @@
       <c r="E3" s="6">
         <v>58.43</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
+      <c r="F3">
+        <v>31.15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -706,6 +707,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
@@ -1087,11 +1102,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
